--- a/Data/EC/NIT-9000904059.xlsx
+++ b/Data/EC/NIT-9000904059.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDE35BB1-A402-4928-AACD-794DFE76B1BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC326ECF-58A7-446E-9EBA-D541C5698303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FDB355E3-A4D1-49E2-8D06-AE9E91F56E8C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DE468A74-C95B-49BA-A7E1-6C8EE57959A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,6 +65,48 @@
     <t>CC</t>
   </si>
   <si>
+    <t>32937279</t>
+  </si>
+  <si>
+    <t>DIVANNE NISETT HERNANDEZ RHENALS</t>
+  </si>
+  <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>73569931</t>
+  </si>
+  <si>
+    <t>CARLOS REBOLLEDO GRUESO</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
     <t>73168552</t>
   </si>
   <si>
@@ -74,88 +116,46 @@
     <t>1705</t>
   </si>
   <si>
-    <t>32937279</t>
-  </si>
-  <si>
-    <t>DIVANNE NISETT HERNANDEZ RHENALS</t>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
   </si>
   <si>
     <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>73569931</t>
-  </si>
-  <si>
-    <t>CARLOS REBOLLEDO GRUESO</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -254,7 +254,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -267,9 +269,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -469,23 +469,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -513,10 +513,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -569,7 +569,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B6CC131-B012-3B5D-9481-191695205BBC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59026E3E-40E6-8C12-3429-C2D61E903F5A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -920,7 +920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFCC8B0B-869E-4AB2-810F-7A9DB8F5654A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ECD1851-F834-4973-A975-0AA4C21F486C}">
   <dimension ref="B2:J72"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1098,10 +1098,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>21160</v>
+        <v>25774</v>
       </c>
       <c r="G16" s="18">
-        <v>690000</v>
+        <v>644350</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1118,13 +1118,13 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>20619</v>
+        <v>22668</v>
       </c>
       <c r="G17" s="18">
-        <v>644350</v>
+        <v>566700</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1135,13 +1135,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
         <v>25774</v>
@@ -1164,13 +1164,13 @@
         <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>25774</v>
+        <v>22668</v>
       </c>
       <c r="G19" s="18">
-        <v>644350</v>
+        <v>566700</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1181,13 +1181,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
         <v>25774</v>
@@ -1210,13 +1210,13 @@
         <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F21" s="18">
-        <v>25774</v>
+        <v>22668</v>
       </c>
       <c r="G21" s="18">
-        <v>644350</v>
+        <v>566700</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1227,13 +1227,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F22" s="18">
         <v>25774</v>
@@ -1256,13 +1256,13 @@
         <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F23" s="18">
-        <v>25774</v>
+        <v>22668</v>
       </c>
       <c r="G23" s="18">
-        <v>644350</v>
+        <v>566700</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1273,13 +1273,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F24" s="18">
         <v>25774</v>
@@ -1302,13 +1302,13 @@
         <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F25" s="18">
-        <v>25774</v>
+        <v>22668</v>
       </c>
       <c r="G25" s="18">
-        <v>644350</v>
+        <v>566700</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1319,13 +1319,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F26" s="18">
         <v>25774</v>
@@ -1348,13 +1348,13 @@
         <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F27" s="18">
-        <v>25774</v>
+        <v>22668</v>
       </c>
       <c r="G27" s="18">
-        <v>644350</v>
+        <v>566700</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1365,13 +1365,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F28" s="18">
         <v>25774</v>
@@ -1394,13 +1394,13 @@
         <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F29" s="18">
-        <v>25774</v>
+        <v>22668</v>
       </c>
       <c r="G29" s="18">
-        <v>644350</v>
+        <v>566700</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1411,13 +1411,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F30" s="18">
         <v>25774</v>
@@ -1440,13 +1440,13 @@
         <v>13</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F31" s="18">
-        <v>25774</v>
+        <v>22668</v>
       </c>
       <c r="G31" s="18">
-        <v>644350</v>
+        <v>566700</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1457,13 +1457,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F32" s="18">
         <v>25774</v>
@@ -1486,13 +1486,13 @@
         <v>13</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F33" s="18">
-        <v>25774</v>
+        <v>22668</v>
       </c>
       <c r="G33" s="18">
-        <v>644350</v>
+        <v>566700</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1503,13 +1503,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F34" s="18">
         <v>25774</v>
@@ -1532,13 +1532,13 @@
         <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F35" s="18">
-        <v>25774</v>
+        <v>22668</v>
       </c>
       <c r="G35" s="18">
-        <v>644350</v>
+        <v>566700</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1549,19 +1549,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F36" s="18">
-        <v>25774</v>
+        <v>21160</v>
       </c>
       <c r="G36" s="18">
-        <v>644350</v>
+        <v>690000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1572,13 +1572,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F37" s="18">
         <v>25774</v>
@@ -1601,13 +1601,13 @@
         <v>13</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F38" s="18">
-        <v>25774</v>
+        <v>22668</v>
       </c>
       <c r="G38" s="18">
-        <v>644350</v>
+        <v>566700</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1618,13 +1618,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F39" s="18">
         <v>25774</v>
@@ -1647,13 +1647,13 @@
         <v>13</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F40" s="18">
-        <v>25774</v>
+        <v>22668</v>
       </c>
       <c r="G40" s="18">
-        <v>644350</v>
+        <v>566700</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1664,13 +1664,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F41" s="18">
         <v>25774</v>
@@ -1687,16 +1687,16 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F42" s="18">
-        <v>18134</v>
+        <v>22668</v>
       </c>
       <c r="G42" s="18">
         <v>566700</v>
@@ -1710,19 +1710,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F43" s="18">
-        <v>22668</v>
+        <v>25774</v>
       </c>
       <c r="G43" s="18">
-        <v>566700</v>
+        <v>644350</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1733,13 +1733,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F44" s="18">
         <v>22668</v>
@@ -1756,19 +1756,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F45" s="18">
-        <v>22668</v>
+        <v>25774</v>
       </c>
       <c r="G45" s="18">
-        <v>566700</v>
+        <v>644350</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1779,13 +1779,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F46" s="18">
         <v>22668</v>
@@ -1802,19 +1802,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F47" s="18">
-        <v>22668</v>
+        <v>25774</v>
       </c>
       <c r="G47" s="18">
-        <v>566700</v>
+        <v>644350</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1825,13 +1825,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F48" s="18">
         <v>22668</v>
@@ -1848,19 +1848,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F49" s="18">
-        <v>22668</v>
+        <v>25774</v>
       </c>
       <c r="G49" s="18">
-        <v>566700</v>
+        <v>644350</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1871,13 +1871,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F50" s="18">
         <v>22668</v>
@@ -1894,19 +1894,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F51" s="18">
-        <v>22668</v>
+        <v>25774</v>
       </c>
       <c r="G51" s="18">
-        <v>566700</v>
+        <v>644350</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -1917,13 +1917,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F52" s="18">
         <v>22668</v>
@@ -1940,19 +1940,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F53" s="18">
-        <v>22668</v>
+        <v>25774</v>
       </c>
       <c r="G53" s="18">
-        <v>566700</v>
+        <v>644350</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -1963,13 +1963,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F54" s="18">
         <v>22668</v>
@@ -1986,19 +1986,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F55" s="18">
-        <v>22668</v>
+        <v>25774</v>
       </c>
       <c r="G55" s="18">
-        <v>566700</v>
+        <v>644350</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2009,13 +2009,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="F56" s="18">
         <v>22668</v>
@@ -2032,19 +2032,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F57" s="18">
-        <v>22668</v>
+        <v>25774</v>
       </c>
       <c r="G57" s="18">
-        <v>566700</v>
+        <v>644350</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2055,13 +2055,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F58" s="18">
         <v>22668</v>
@@ -2078,19 +2078,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F59" s="18">
-        <v>22668</v>
+        <v>25774</v>
       </c>
       <c r="G59" s="18">
-        <v>566700</v>
+        <v>644350</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2101,13 +2101,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F60" s="18">
         <v>22668</v>
@@ -2124,19 +2124,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F61" s="18">
-        <v>22668</v>
+        <v>25774</v>
       </c>
       <c r="G61" s="18">
-        <v>566700</v>
+        <v>644350</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2147,13 +2147,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F62" s="18">
         <v>22668</v>
@@ -2170,19 +2170,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D63" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E63" s="16" t="s">
-        <v>34</v>
-      </c>
       <c r="F63" s="18">
-        <v>22668</v>
+        <v>25774</v>
       </c>
       <c r="G63" s="18">
-        <v>566700</v>
+        <v>644350</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2193,13 +2193,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64" s="16" t="s">
         <v>38</v>
-      </c>
-      <c r="D64" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E64" s="16" t="s">
-        <v>35</v>
       </c>
       <c r="F64" s="18">
         <v>22668</v>
@@ -2216,19 +2216,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D65" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E65" s="16" t="s">
-        <v>36</v>
-      </c>
       <c r="F65" s="18">
-        <v>22668</v>
+        <v>20619</v>
       </c>
       <c r="G65" s="18">
-        <v>566700</v>
+        <v>644350</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2239,16 +2239,16 @@
         <v>8</v>
       </c>
       <c r="C66" s="22" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D66" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="E66" s="22" t="s">
-        <v>37</v>
-      </c>
       <c r="F66" s="24">
-        <v>22668</v>
+        <v>18134</v>
       </c>
       <c r="G66" s="24">
         <v>566700</v>
